--- a/data/pca/factorExposure/factorExposure_2012-11-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-09.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001763599830351722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002212735661962018</v>
+      </c>
+      <c r="C2">
+        <v>-0.02987294181886214</v>
+      </c>
+      <c r="D2">
+        <v>0.004656042021744312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001511156199336534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006933712493094607</v>
+      </c>
+      <c r="C4">
+        <v>-0.08295646204584933</v>
+      </c>
+      <c r="D4">
+        <v>0.07492797281979813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0007772397498870965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01456850297481893</v>
+      </c>
+      <c r="C6">
+        <v>-0.1154083718225159</v>
+      </c>
+      <c r="D6">
+        <v>0.02995035864979981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002241717176162108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00478162479936624</v>
+      </c>
+      <c r="C7">
+        <v>-0.05843060980470708</v>
+      </c>
+      <c r="D7">
+        <v>0.0332362230061678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.000369659678990043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005964694239391909</v>
+      </c>
+      <c r="C8">
+        <v>-0.03675649500387537</v>
+      </c>
+      <c r="D8">
+        <v>0.040583806276532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004106772878435245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.005080705585019507</v>
+      </c>
+      <c r="C9">
+        <v>-0.07084520530061338</v>
+      </c>
+      <c r="D9">
+        <v>0.07319001207518457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001488096029192326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.0057473729118108</v>
+      </c>
+      <c r="C10">
+        <v>-0.0557047334050951</v>
+      </c>
+      <c r="D10">
+        <v>-0.1980504717734315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004725037624422927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005541299329734506</v>
+      </c>
+      <c r="C11">
+        <v>-0.07943824438896134</v>
+      </c>
+      <c r="D11">
+        <v>0.06323233968072672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001560928478277613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003918980191523802</v>
+      </c>
+      <c r="C12">
+        <v>-0.06360494595917496</v>
+      </c>
+      <c r="D12">
+        <v>0.04911071207520382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001750004773336913</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009027025666876101</v>
+      </c>
+      <c r="C13">
+        <v>-0.07004877500147062</v>
+      </c>
+      <c r="D13">
+        <v>0.05655824132422273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002535436746618457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001074824093366421</v>
+      </c>
+      <c r="C14">
+        <v>-0.04389014730441992</v>
+      </c>
+      <c r="D14">
+        <v>0.006034076229657602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0008944843183585228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005999041404403846</v>
+      </c>
+      <c r="C15">
+        <v>-0.0417125524737386</v>
+      </c>
+      <c r="D15">
+        <v>0.03129458776382472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002312576931461696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00494102876583929</v>
+      </c>
+      <c r="C16">
+        <v>-0.06418440526984308</v>
+      </c>
+      <c r="D16">
+        <v>0.05464179176871899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001091445789188819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00871315518746936</v>
+      </c>
+      <c r="C20">
+        <v>-0.06559386289855661</v>
+      </c>
+      <c r="D20">
+        <v>0.04348323312526693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005975700293773645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009831653547643558</v>
+      </c>
+      <c r="C21">
+        <v>-0.02149683864169742</v>
+      </c>
+      <c r="D21">
+        <v>0.03875542243461898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01695101397729731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006152603324538215</v>
+      </c>
+      <c r="C22">
+        <v>-0.0928027919707516</v>
+      </c>
+      <c r="D22">
+        <v>0.1201229026963093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01727088355503163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.005956110822955122</v>
+      </c>
+      <c r="C23">
+        <v>-0.09356950566345447</v>
+      </c>
+      <c r="D23">
+        <v>0.1201617911302102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003674845266074514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005442355735106911</v>
+      </c>
+      <c r="C24">
+        <v>-0.07566204919247033</v>
+      </c>
+      <c r="D24">
+        <v>0.06682403099850334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005987504520773316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003195887580336153</v>
+      </c>
+      <c r="C25">
+        <v>-0.07799099414507904</v>
+      </c>
+      <c r="D25">
+        <v>0.06477383141763345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004324779460341059</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003600391727186804</v>
+      </c>
+      <c r="C26">
+        <v>-0.03883834134515685</v>
+      </c>
+      <c r="D26">
+        <v>0.02373052189055621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007624465423737749</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009279245792077861</v>
+      </c>
+      <c r="C28">
+        <v>-0.104993918004129</v>
+      </c>
+      <c r="D28">
+        <v>-0.3233527455142263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001600693729739895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002852769316920412</v>
+      </c>
+      <c r="C29">
+        <v>-0.05008064400323944</v>
+      </c>
+      <c r="D29">
+        <v>0.00719995812976025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.00508172469943459</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01017517095769121</v>
+      </c>
+      <c r="C30">
+        <v>-0.1428671264043986</v>
+      </c>
+      <c r="D30">
+        <v>0.1050480082773587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-2.520878883830809e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006445666066125655</v>
+      </c>
+      <c r="C31">
+        <v>-0.04434832411535524</v>
+      </c>
+      <c r="D31">
+        <v>0.02992764798172961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000752376451665253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003616855967663027</v>
+      </c>
+      <c r="C32">
+        <v>-0.03968645935665469</v>
+      </c>
+      <c r="D32">
+        <v>0.0249406709968814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003810776299296889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008617353579179685</v>
+      </c>
+      <c r="C33">
+        <v>-0.08664529636772536</v>
+      </c>
+      <c r="D33">
+        <v>0.0657026320468214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005333480839084094</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004029011804495547</v>
+      </c>
+      <c r="C34">
+        <v>-0.05767833943913681</v>
+      </c>
+      <c r="D34">
+        <v>0.05562475922232868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007153058710353879</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005139588117299879</v>
+      </c>
+      <c r="C35">
+        <v>-0.0406168731763943</v>
+      </c>
+      <c r="D35">
+        <v>0.01792186804002427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004523403538277225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001043668763492856</v>
+      </c>
+      <c r="C36">
+        <v>-0.02498505661728514</v>
+      </c>
+      <c r="D36">
+        <v>0.0235759614833406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.000979570495453086</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.008939678939329112</v>
+      </c>
+      <c r="C38">
+        <v>-0.03503987771595624</v>
+      </c>
+      <c r="D38">
+        <v>0.01556218085709349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01399129041230619</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009082136849478559</v>
+      </c>
+      <c r="C39">
+        <v>-0.1147466878654774</v>
+      </c>
+      <c r="D39">
+        <v>0.07621974431005918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009402188299673798</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003594503555726994</v>
+      </c>
+      <c r="C40">
+        <v>-0.09041201570496082</v>
+      </c>
+      <c r="D40">
+        <v>0.01187163136377152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0007772363235778428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007118078677721973</v>
+      </c>
+      <c r="C41">
+        <v>-0.03757370859614047</v>
+      </c>
+      <c r="D41">
+        <v>0.03886571324744098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003718530922138261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003896736213335403</v>
+      </c>
+      <c r="C43">
+        <v>-0.05304064497613686</v>
+      </c>
+      <c r="D43">
+        <v>0.02618608839784594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01642103284977137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003067304304384795</v>
+      </c>
+      <c r="C44">
+        <v>-0.1076175458105462</v>
+      </c>
+      <c r="D44">
+        <v>0.06665267886418903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0002962388180274363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002250775722082428</v>
+      </c>
+      <c r="C46">
+        <v>-0.03311099093148766</v>
+      </c>
+      <c r="D46">
+        <v>0.0328345984714827</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001414460713743802</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002383569601974286</v>
+      </c>
+      <c r="C47">
+        <v>-0.03661264109828422</v>
+      </c>
+      <c r="D47">
+        <v>0.02082056676828218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003995847285352606</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006782989951935697</v>
+      </c>
+      <c r="C48">
+        <v>-0.0302263447218328</v>
+      </c>
+      <c r="D48">
+        <v>0.03504843187527358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01320880146770411</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01665885491040568</v>
+      </c>
+      <c r="C49">
+        <v>-0.1862260441645532</v>
+      </c>
+      <c r="D49">
+        <v>0.01304559188567668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001959089690391261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003756174656526412</v>
+      </c>
+      <c r="C50">
+        <v>-0.04318359812787092</v>
+      </c>
+      <c r="D50">
+        <v>0.0375322331675135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001661470344269425</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004717268953637366</v>
+      </c>
+      <c r="C51">
+        <v>-0.02526744003613585</v>
+      </c>
+      <c r="D51">
+        <v>0.02004451205281835</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006670850346992552</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02116211955982454</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695695541380186</v>
+      </c>
+      <c r="D53">
+        <v>0.0268770176859612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001790857028890992</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008911916998006407</v>
+      </c>
+      <c r="C54">
+        <v>-0.05432231875593586</v>
+      </c>
+      <c r="D54">
+        <v>0.04514585659130163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005615481122064137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009586718610885494</v>
+      </c>
+      <c r="C55">
+        <v>-0.109292968177098</v>
+      </c>
+      <c r="D55">
+        <v>0.03893908624214828</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.0008801459713065187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02026447657439169</v>
+      </c>
+      <c r="C56">
+        <v>-0.1763871540953929</v>
+      </c>
+      <c r="D56">
+        <v>0.01680815059263622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00974351786114927</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01962591167571285</v>
+      </c>
+      <c r="C58">
+        <v>-0.1098529392362736</v>
+      </c>
+      <c r="D58">
+        <v>0.06208906223134961</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.01005659898177436</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01007226456579287</v>
+      </c>
+      <c r="C59">
+        <v>-0.1632942506786762</v>
+      </c>
+      <c r="D59">
+        <v>-0.3329365470795672</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005774016880132414</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02537437468541574</v>
+      </c>
+      <c r="C60">
+        <v>-0.2250641670751481</v>
+      </c>
+      <c r="D60">
+        <v>0.02351136633423396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01555799062151043</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001770932712975134</v>
+      </c>
+      <c r="C61">
+        <v>-0.09489246400896288</v>
+      </c>
+      <c r="D61">
+        <v>0.05692988235342771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1593033389721817</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1482751357024167</v>
+      </c>
+      <c r="C62">
+        <v>-0.09549349499476766</v>
+      </c>
+      <c r="D62">
+        <v>0.03070324907326567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0005880034717533046</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00669848540946081</v>
+      </c>
+      <c r="C63">
+        <v>-0.05438913888114563</v>
+      </c>
+      <c r="D63">
+        <v>0.02744366087033866</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0007677973546506847</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01554694627571426</v>
+      </c>
+      <c r="C64">
+        <v>-0.1040768303540522</v>
+      </c>
+      <c r="D64">
+        <v>0.06257890261263929</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001496516982910651</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01798757049380705</v>
+      </c>
+      <c r="C65">
+        <v>-0.1237634871687089</v>
+      </c>
+      <c r="D65">
+        <v>0.02077055130470088</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007897688504440357</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01351032985582499</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596763514776744</v>
+      </c>
+      <c r="D66">
+        <v>0.1133301327116611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002667689139286528</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0154464855989246</v>
+      </c>
+      <c r="C67">
+        <v>-0.06614956073669052</v>
+      </c>
+      <c r="D67">
+        <v>0.02748408358821499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007719594421731978</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0009673621571060742</v>
+      </c>
+      <c r="C68">
+        <v>-0.0854704896501597</v>
+      </c>
+      <c r="D68">
+        <v>-0.2626495144373064</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002340839198655683</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006070527752612056</v>
+      </c>
+      <c r="C69">
+        <v>-0.05087721925266688</v>
+      </c>
+      <c r="D69">
+        <v>0.03697075708116848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.00033629907359112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00177443161422689</v>
+      </c>
+      <c r="C70">
+        <v>-0.002959414803947948</v>
+      </c>
+      <c r="D70">
+        <v>0.002261256201089706</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001956467682645555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005810843385664603</v>
+      </c>
+      <c r="C71">
+        <v>-0.09216328476172646</v>
+      </c>
+      <c r="D71">
+        <v>-0.3035139929334731</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005605718612223201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01654955642106051</v>
+      </c>
+      <c r="C72">
+        <v>-0.1531582257308339</v>
+      </c>
+      <c r="D72">
+        <v>0.01401108346852574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01561653664599824</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03167862365600865</v>
+      </c>
+      <c r="C73">
+        <v>-0.2825301164996655</v>
+      </c>
+      <c r="D73">
+        <v>0.05656648806870875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.007110297359801003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002074483898974204</v>
+      </c>
+      <c r="C74">
+        <v>-0.103194177192181</v>
+      </c>
+      <c r="D74">
+        <v>0.03521807819809147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004212168916269182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0113741782686662</v>
+      </c>
+      <c r="C75">
+        <v>-0.1228503304340057</v>
+      </c>
+      <c r="D75">
+        <v>0.02107645334297949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005688794656396564</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02271911889748861</v>
+      </c>
+      <c r="C76">
+        <v>-0.1492462072804172</v>
+      </c>
+      <c r="D76">
+        <v>0.05555540380093619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.004859609175496941</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02306362186428455</v>
+      </c>
+      <c r="C77">
+        <v>-0.1162293651590749</v>
+      </c>
+      <c r="D77">
+        <v>0.06590979299880473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0002511361929206267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01511002290867876</v>
+      </c>
+      <c r="C78">
+        <v>-0.0958805987149168</v>
+      </c>
+      <c r="D78">
+        <v>0.07428449915245336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02136613232692371</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03829018316834671</v>
+      </c>
+      <c r="C79">
+        <v>-0.156770106327296</v>
+      </c>
+      <c r="D79">
+        <v>0.03053267590389487</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005709207203684833</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01014864690917708</v>
+      </c>
+      <c r="C80">
+        <v>-0.03949552827711088</v>
+      </c>
+      <c r="D80">
+        <v>0.02988112353936552</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0003302741429151316</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01572487054071826</v>
+      </c>
+      <c r="C81">
+        <v>-0.129924337181691</v>
+      </c>
+      <c r="D81">
+        <v>0.03821020014179448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002506334518080277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0202384663417662</v>
+      </c>
+      <c r="C82">
+        <v>-0.1394152040333083</v>
+      </c>
+      <c r="D82">
+        <v>0.04165001780144945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.005515865391395991</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01059836507338288</v>
+      </c>
+      <c r="C83">
+        <v>-0.05860535013430516</v>
+      </c>
+      <c r="D83">
+        <v>0.04733363296505847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01310845917501422</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01171242737289418</v>
+      </c>
+      <c r="C84">
+        <v>-0.03712706111683493</v>
+      </c>
+      <c r="D84">
+        <v>-0.0009452528869391401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01229284336685417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02926502655891443</v>
+      </c>
+      <c r="C85">
+        <v>-0.1254435108789369</v>
+      </c>
+      <c r="D85">
+        <v>0.04104508114382853</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003270690830674354</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00461819904670986</v>
+      </c>
+      <c r="C86">
+        <v>-0.04927752211622528</v>
+      </c>
+      <c r="D86">
+        <v>0.02922519264567374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004166075045928211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01106435504764742</v>
+      </c>
+      <c r="C87">
+        <v>-0.1294530638801305</v>
+      </c>
+      <c r="D87">
+        <v>0.06947288811491338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01173650620371453</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002776335445526846</v>
+      </c>
+      <c r="C88">
+        <v>-0.06309110495781546</v>
+      </c>
+      <c r="D88">
+        <v>0.022463343320542</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01595410848212223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001460816994158682</v>
+      </c>
+      <c r="C89">
+        <v>-0.139345952863906</v>
+      </c>
+      <c r="D89">
+        <v>-0.3199419894257373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.004303789960378462</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006789955720832254</v>
+      </c>
+      <c r="C90">
+        <v>-0.1193612748098811</v>
+      </c>
+      <c r="D90">
+        <v>-0.3171863824576341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001356997559598464</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01059684631834305</v>
+      </c>
+      <c r="C91">
+        <v>-0.1007345990068467</v>
+      </c>
+      <c r="D91">
+        <v>0.02197264877723589</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01136817545816318</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001104912018563283</v>
+      </c>
+      <c r="C92">
+        <v>-0.1355158423852417</v>
+      </c>
+      <c r="D92">
+        <v>-0.3254821504375446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002901327559742744</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005118563095979547</v>
+      </c>
+      <c r="C93">
+        <v>-0.104432639682049</v>
+      </c>
+      <c r="D93">
+        <v>-0.302116764555712</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0004880929304529548</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02242323097140732</v>
+      </c>
+      <c r="C94">
+        <v>-0.146281244554835</v>
+      </c>
+      <c r="D94">
+        <v>0.05021045603261821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003511188818322766</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01708821093909785</v>
+      </c>
+      <c r="C95">
+        <v>-0.1227604397467669</v>
+      </c>
+      <c r="D95">
+        <v>0.06320239415794184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.002413177974046264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03623528356011498</v>
+      </c>
+      <c r="C97">
+        <v>-0.218326153750513</v>
+      </c>
+      <c r="D97">
+        <v>-0.01225251998364694</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004524419341436156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03805737942851494</v>
+      </c>
+      <c r="C98">
+        <v>-0.253008476506543</v>
+      </c>
+      <c r="D98">
+        <v>0.04135532120353715</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9851027724634241</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9813901699791773</v>
+      </c>
+      <c r="C99">
+        <v>0.1202128465219894</v>
+      </c>
+      <c r="D99">
+        <v>-0.02453985214075164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001522173738494167</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002893749136549524</v>
+      </c>
+      <c r="C101">
+        <v>-0.05021765159790037</v>
+      </c>
+      <c r="D101">
+        <v>0.007589613031681082</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
